--- a/Code/Results/Cases/Case_1_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005398452333367</v>
+        <v>1.036487756214196</v>
       </c>
       <c r="D2">
-        <v>1.047047942253848</v>
+        <v>1.057963630632712</v>
       </c>
       <c r="E2">
-        <v>1.010968131776595</v>
+        <v>1.035389194267288</v>
       </c>
       <c r="F2">
-        <v>1.04562790208427</v>
+        <v>1.063173931094379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052385673132048</v>
+        <v>1.044836911379219</v>
       </c>
       <c r="J2">
-        <v>1.027418886877055</v>
+        <v>1.041595802792134</v>
       </c>
       <c r="K2">
-        <v>1.057888543417734</v>
+        <v>1.060697162094288</v>
       </c>
       <c r="L2">
-        <v>1.022276749009367</v>
+        <v>1.038185939347275</v>
       </c>
       <c r="M2">
-        <v>1.056486162518752</v>
+        <v>1.065893285383269</v>
       </c>
       <c r="N2">
-        <v>1.012653714152332</v>
+        <v>1.017750063593984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.010347360716234</v>
+        <v>1.037528012924204</v>
       </c>
       <c r="D3">
-        <v>1.050490441023764</v>
+        <v>1.058701374171659</v>
       </c>
       <c r="E3">
-        <v>1.014965404408804</v>
+        <v>1.036276702230254</v>
       </c>
       <c r="F3">
-        <v>1.049687124971988</v>
+        <v>1.064069889248569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053913263940911</v>
+        <v>1.04510500594365</v>
       </c>
       <c r="J3">
-        <v>1.030559866453398</v>
+        <v>1.042279587321826</v>
       </c>
       <c r="K3">
-        <v>1.060515610963294</v>
+        <v>1.061249038772682</v>
       </c>
       <c r="L3">
-        <v>1.025410315098312</v>
+        <v>1.038882624337137</v>
       </c>
       <c r="M3">
-        <v>1.059721399121127</v>
+        <v>1.066603999489315</v>
       </c>
       <c r="N3">
-        <v>1.013737844097597</v>
+        <v>1.017982272930095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013481436265309</v>
+        <v>1.038201469070043</v>
       </c>
       <c r="D4">
-        <v>1.05267504036712</v>
+        <v>1.059178994806896</v>
       </c>
       <c r="E4">
-        <v>1.017502776023683</v>
+        <v>1.036851610875268</v>
       </c>
       <c r="F4">
-        <v>1.052264542776874</v>
+        <v>1.064650230802678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054872676587082</v>
+        <v>1.045277487504928</v>
       </c>
       <c r="J4">
-        <v>1.032546461238757</v>
+        <v>1.042721805842332</v>
       </c>
       <c r="K4">
-        <v>1.062176721196651</v>
+        <v>1.061605721642464</v>
       </c>
       <c r="L4">
-        <v>1.027394449577321</v>
+        <v>1.039333423842552</v>
       </c>
       <c r="M4">
-        <v>1.061770591073533</v>
+        <v>1.067063837685844</v>
       </c>
       <c r="N4">
-        <v>1.014422978999908</v>
+        <v>1.018132317297507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01478330037683</v>
+        <v>1.038484671321531</v>
       </c>
       <c r="D5">
-        <v>1.05358349411466</v>
+        <v>1.059379845415652</v>
       </c>
       <c r="E5">
-        <v>1.018558152881867</v>
+        <v>1.037093452881513</v>
       </c>
       <c r="F5">
-        <v>1.053336717258881</v>
+        <v>1.064894348042456</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055269242570837</v>
+        <v>1.045349760465409</v>
       </c>
       <c r="J5">
-        <v>1.033371023188478</v>
+        <v>1.042907657536701</v>
       </c>
       <c r="K5">
-        <v>1.062866040815898</v>
+        <v>1.061755570095419</v>
       </c>
       <c r="L5">
-        <v>1.028218522810741</v>
+        <v>1.0395229388102</v>
       </c>
       <c r="M5">
-        <v>1.062621818653656</v>
+        <v>1.067257142777589</v>
       </c>
       <c r="N5">
-        <v>1.014707213473648</v>
+        <v>1.018195345249794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015000985931656</v>
+        <v>1.038532226985992</v>
       </c>
       <c r="D6">
-        <v>1.053735453073484</v>
+        <v>1.059413572533787</v>
       </c>
       <c r="E6">
-        <v>1.018734702693371</v>
+        <v>1.037134068015367</v>
       </c>
       <c r="F6">
-        <v>1.053516084467697</v>
+        <v>1.064935344672626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055335435780368</v>
+        <v>1.045361881427711</v>
       </c>
       <c r="J6">
-        <v>1.033508859402491</v>
+        <v>1.042938859498008</v>
       </c>
       <c r="K6">
-        <v>1.062981259862178</v>
+        <v>1.061780724359791</v>
       </c>
       <c r="L6">
-        <v>1.028356308575879</v>
+        <v>1.039554759122635</v>
       </c>
       <c r="M6">
-        <v>1.062764151690996</v>
+        <v>1.067289598886079</v>
       </c>
       <c r="N6">
-        <v>1.014754718525684</v>
+        <v>1.018205924939082</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013498892728405</v>
+        <v>1.038205252913251</v>
       </c>
       <c r="D7">
-        <v>1.052687217854865</v>
+        <v>1.059181678352719</v>
       </c>
       <c r="E7">
-        <v>1.01751692200552</v>
+        <v>1.036854841789981</v>
       </c>
       <c r="F7">
-        <v>1.052278913393471</v>
+        <v>1.064653492154102</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054878001893284</v>
+        <v>1.045278454156604</v>
       </c>
       <c r="J7">
-        <v>1.032557520261607</v>
+        <v>1.042724289426276</v>
       </c>
       <c r="K7">
-        <v>1.062185966975394</v>
+        <v>1.061607724322909</v>
       </c>
       <c r="L7">
-        <v>1.027405499943747</v>
+        <v>1.039335956156072</v>
       </c>
       <c r="M7">
-        <v>1.061782005073427</v>
+        <v>1.067066420681948</v>
       </c>
       <c r="N7">
-        <v>1.014426791713587</v>
+        <v>1.018133159679657</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007085467809834</v>
+        <v>1.036839245200082</v>
       </c>
       <c r="D8">
-        <v>1.048220440202947</v>
+        <v>1.058212901743566</v>
       </c>
       <c r="E8">
-        <v>1.012329466445944</v>
+        <v>1.035689000467232</v>
       </c>
       <c r="F8">
-        <v>1.047010163631966</v>
+        <v>1.06347660006865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052908054922661</v>
+        <v>1.044927720654147</v>
       </c>
       <c r="J8">
-        <v>1.02849011334351</v>
+        <v>1.041826939483495</v>
       </c>
       <c r="K8">
-        <v>1.058784570962948</v>
+        <v>1.060883757462425</v>
       </c>
       <c r="L8">
-        <v>1.023344977614149</v>
+        <v>1.038421387409397</v>
       </c>
       <c r="M8">
-        <v>1.057588889125134</v>
+        <v>1.066133482512753</v>
       </c>
       <c r="N8">
-        <v>1.013023566371692</v>
+        <v>1.017828583263229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9952319331833809</v>
+        <v>1.034434782687954</v>
       </c>
       <c r="D9">
-        <v>1.040005171347774</v>
+        <v>1.056507772929563</v>
       </c>
       <c r="E9">
-        <v>1.00279181332129</v>
+        <v>1.03363951219015</v>
       </c>
       <c r="F9">
-        <v>1.037330350732899</v>
+        <v>1.061407389098932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049205681907515</v>
+        <v>1.044302092996939</v>
       </c>
       <c r="J9">
-        <v>1.020954195044653</v>
+        <v>1.040243911253768</v>
       </c>
       <c r="K9">
-        <v>1.052480902941582</v>
+        <v>1.059604871641568</v>
       </c>
       <c r="L9">
-        <v>1.015839757115583</v>
+        <v>1.036809809458926</v>
       </c>
       <c r="M9">
-        <v>1.049845471616479</v>
+        <v>1.064489252975374</v>
       </c>
       <c r="N9">
-        <v>1.010419667637169</v>
+        <v>1.017290280124944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9869133845596704</v>
+        <v>1.032833578403082</v>
       </c>
       <c r="D10">
-        <v>1.034273862287305</v>
+        <v>1.055372424791588</v>
       </c>
       <c r="E10">
-        <v>0.9961361764625692</v>
+        <v>1.032276509348269</v>
       </c>
       <c r="F10">
-        <v>1.030582842574163</v>
+        <v>1.06003109402473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0465691281786</v>
+        <v>1.043879929523052</v>
       </c>
       <c r="J10">
-        <v>1.015656016891574</v>
+        <v>1.039187389762967</v>
       </c>
       <c r="K10">
-        <v>1.048050689070056</v>
+        <v>1.058750206481247</v>
       </c>
       <c r="L10">
-        <v>1.010575545640178</v>
+        <v>1.03573546448051</v>
       </c>
       <c r="M10">
-        <v>1.044421029483608</v>
+        <v>1.063392973742324</v>
       </c>
       <c r="N10">
-        <v>1.008586718866354</v>
+        <v>1.016930351427096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.983201660029777</v>
+        <v>1.032140660725594</v>
       </c>
       <c r="D11">
-        <v>1.031726208436389</v>
+        <v>1.054881154880085</v>
       </c>
       <c r="E11">
-        <v>0.9931762948901753</v>
+        <v>1.03168711144629</v>
       </c>
       <c r="F11">
-        <v>1.027584424515082</v>
+        <v>1.059435911564501</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045384397581054</v>
+        <v>1.043695928616672</v>
       </c>
       <c r="J11">
-        <v>1.013290361050296</v>
+        <v>1.038729632664543</v>
       </c>
       <c r="K11">
-        <v>1.046073630460505</v>
+        <v>1.058379645757979</v>
       </c>
       <c r="L11">
-        <v>1.008228053907154</v>
+        <v>1.03527027758277</v>
       </c>
       <c r="M11">
-        <v>1.042004236254683</v>
+        <v>1.062918254589901</v>
       </c>
       <c r="N11">
-        <v>1.007767876519624</v>
+        <v>1.016774250181132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818054526257478</v>
+        <v>1.031883342515138</v>
       </c>
       <c r="D12">
-        <v>1.030769472655605</v>
+        <v>1.054698728140759</v>
       </c>
       <c r="E12">
-        <v>0.9920644653713478</v>
+        <v>1.031468302403063</v>
       </c>
       <c r="F12">
-        <v>1.026458521463854</v>
+        <v>1.059214949967215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04493757083693</v>
+        <v>1.043627402368699</v>
       </c>
       <c r="J12">
-        <v>1.012400310400261</v>
+        <v>1.038559560178605</v>
       </c>
       <c r="K12">
-        <v>1.045330002514892</v>
+        <v>1.058241930960166</v>
       </c>
       <c r="L12">
-        <v>1.007345293402228</v>
+        <v>1.035097488682868</v>
       </c>
       <c r="M12">
-        <v>1.041095786701555</v>
+        <v>1.062741920208484</v>
       </c>
       <c r="N12">
-        <v>1.007459742640178</v>
+        <v>1.01671622994693</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9821057533849422</v>
+        <v>1.031938535326722</v>
       </c>
       <c r="D13">
-        <v>1.03097517608124</v>
+        <v>1.054737856887979</v>
       </c>
       <c r="E13">
-        <v>0.9923035292003473</v>
+        <v>1.031515232263186</v>
       </c>
       <c r="F13">
-        <v>1.026700592296769</v>
+        <v>1.059262341727516</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045033727750424</v>
+        <v>1.043642109626319</v>
       </c>
       <c r="J13">
-        <v>1.012591752570481</v>
+        <v>1.038596043158449</v>
       </c>
       <c r="K13">
-        <v>1.045489939605669</v>
+        <v>1.058271474498678</v>
       </c>
       <c r="L13">
-        <v>1.007535146823779</v>
+        <v>1.035134552379832</v>
       </c>
       <c r="M13">
-        <v>1.041291147425846</v>
+        <v>1.062779744632782</v>
       </c>
       <c r="N13">
-        <v>1.007526021838663</v>
+        <v>1.016728677167307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9830866124277795</v>
+        <v>1.032119389451697</v>
       </c>
       <c r="D14">
-        <v>1.031647340100877</v>
+        <v>1.054866074345285</v>
       </c>
       <c r="E14">
-        <v>0.9930846477804683</v>
+        <v>1.031669022179097</v>
       </c>
       <c r="F14">
-        <v>1.027491608842253</v>
+        <v>1.059417644443799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045347602513078</v>
+        <v>1.043690267887865</v>
       </c>
       <c r="J14">
-        <v>1.013217024148572</v>
+        <v>1.038715575256293</v>
       </c>
       <c r="K14">
-        <v>1.04601235347398</v>
+        <v>1.058368263674743</v>
       </c>
       <c r="L14">
-        <v>1.00815530838439</v>
+        <v>1.035255994750152</v>
       </c>
       <c r="M14">
-        <v>1.041929365941973</v>
+        <v>1.06290367878173</v>
       </c>
       <c r="N14">
-        <v>1.007742488458705</v>
+        <v>1.016769454969605</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9836886002345748</v>
+        <v>1.032230827898639</v>
       </c>
       <c r="D15">
-        <v>1.032060085300327</v>
+        <v>1.054945080382097</v>
       </c>
       <c r="E15">
-        <v>0.9935642564779187</v>
+        <v>1.03176379308834</v>
       </c>
       <c r="F15">
-        <v>1.027977349596112</v>
+        <v>1.059513346933964</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045540085578972</v>
+        <v>1.043719915925814</v>
       </c>
       <c r="J15">
-        <v>1.013600753211624</v>
+        <v>1.038789217490204</v>
       </c>
       <c r="K15">
-        <v>1.046332989289739</v>
+        <v>1.058427889158616</v>
       </c>
       <c r="L15">
-        <v>1.008535961725967</v>
+        <v>1.035330819712273</v>
       </c>
       <c r="M15">
-        <v>1.042321153037717</v>
+        <v>1.062980038390271</v>
       </c>
       <c r="N15">
-        <v>1.007875327177325</v>
+        <v>1.016794574586529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9871573221125755</v>
+        <v>1.032879573798301</v>
       </c>
       <c r="D16">
-        <v>1.034441508941228</v>
+        <v>1.055405036093475</v>
       </c>
       <c r="E16">
-        <v>0.9963309143152025</v>
+        <v>1.032315642477289</v>
       </c>
       <c r="F16">
-        <v>1.030780168632611</v>
+        <v>1.060070610483416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046646822654672</v>
+        <v>1.043892115777842</v>
       </c>
       <c r="J16">
-        <v>1.015811461100465</v>
+        <v>1.039217763805991</v>
       </c>
       <c r="K16">
-        <v>1.048180625850453</v>
+        <v>1.058774789227039</v>
       </c>
       <c r="L16">
-        <v>1.0107298591709</v>
+        <v>1.035766337688222</v>
       </c>
       <c r="M16">
-        <v>1.044579947367409</v>
+        <v>1.06342447888151</v>
       </c>
       <c r="N16">
-        <v>1.008640515939764</v>
+        <v>1.016940706111355</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893030837133441</v>
+        <v>1.03328662590323</v>
       </c>
       <c r="D17">
-        <v>1.035917302252388</v>
+        <v>1.055693646923845</v>
       </c>
       <c r="E17">
-        <v>0.998045027865382</v>
+        <v>1.032662015367918</v>
       </c>
       <c r="F17">
-        <v>1.032517334381729</v>
+        <v>1.06042037209512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047329314959811</v>
+        <v>1.04399981082318</v>
       </c>
       <c r="J17">
-        <v>1.01717862696827</v>
+        <v>1.039486505887805</v>
       </c>
       <c r="K17">
-        <v>1.049323574369375</v>
+        <v>1.058992261194146</v>
       </c>
       <c r="L17">
-        <v>1.012087421872979</v>
+        <v>1.036039530049572</v>
       </c>
       <c r="M17">
-        <v>1.045978266728562</v>
+        <v>1.063703259138363</v>
       </c>
       <c r="N17">
-        <v>1.009113625953327</v>
+        <v>1.017032303861991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9905441550518499</v>
+        <v>1.033524092486047</v>
       </c>
       <c r="D18">
-        <v>1.036771780006547</v>
+        <v>1.055862021783778</v>
       </c>
       <c r="E18">
-        <v>0.9990373695895237</v>
+        <v>1.032864125119501</v>
       </c>
       <c r="F18">
-        <v>1.033523238200692</v>
+        <v>1.060624455609519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047723264885719</v>
+        <v>1.0440625115847</v>
       </c>
       <c r="J18">
-        <v>1.017969214701762</v>
+        <v>1.039643231909705</v>
       </c>
       <c r="K18">
-        <v>1.049984599639982</v>
+        <v>1.059119062055409</v>
       </c>
       <c r="L18">
-        <v>1.012872740001919</v>
+        <v>1.036198879615139</v>
       </c>
       <c r="M18">
-        <v>1.0467873622065</v>
+        <v>1.063865864664671</v>
       </c>
       <c r="N18">
-        <v>1.009387169320688</v>
+        <v>1.017085707167374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990965574471294</v>
+        <v>1.033605069234437</v>
       </c>
       <c r="D19">
-        <v>1.037062076603756</v>
+        <v>1.055919438828412</v>
       </c>
       <c r="E19">
-        <v>0.9993744851769356</v>
+        <v>1.032933052243328</v>
       </c>
       <c r="F19">
-        <v>1.033864996275667</v>
+        <v>1.060694055243733</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047856898559191</v>
+        <v>1.044083871248048</v>
       </c>
       <c r="J19">
-        <v>1.018237639026134</v>
+        <v>1.039696666894304</v>
       </c>
       <c r="K19">
-        <v>1.050209048677243</v>
+        <v>1.059162289899126</v>
       </c>
       <c r="L19">
-        <v>1.013139423107486</v>
+        <v>1.036253213867939</v>
       </c>
       <c r="M19">
-        <v>1.047062152406349</v>
+        <v>1.063921308532612</v>
       </c>
       <c r="N19">
-        <v>1.009480036928808</v>
+        <v>1.017103912217178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9890739585501845</v>
+        <v>1.033242948929473</v>
       </c>
       <c r="D20">
-        <v>1.035759621681317</v>
+        <v>1.055662678286394</v>
       </c>
       <c r="E20">
-        <v>0.9978618973402293</v>
+        <v>1.032624844937185</v>
       </c>
       <c r="F20">
-        <v>1.032331718192202</v>
+        <v>1.060382838375333</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047256519871675</v>
+        <v>1.043988268153192</v>
       </c>
       <c r="J20">
-        <v>1.017032656431554</v>
+        <v>1.03945767516329</v>
       </c>
       <c r="K20">
-        <v>1.049201532937823</v>
+        <v>1.05896893335091</v>
       </c>
       <c r="L20">
-        <v>1.011942447183538</v>
+        <v>1.036010218979041</v>
       </c>
       <c r="M20">
-        <v>1.04582891847222</v>
+        <v>1.063673348884502</v>
       </c>
       <c r="N20">
-        <v>1.009063116775698</v>
+        <v>1.017022478782573</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9827982657853789</v>
+        <v>1.032066130700522</v>
       </c>
       <c r="D21">
-        <v>1.03144969660867</v>
+        <v>1.054828316033245</v>
       </c>
       <c r="E21">
-        <v>0.9928549758426316</v>
+        <v>1.031623731575393</v>
       </c>
       <c r="F21">
-        <v>1.027259015096525</v>
+        <v>1.059371908462577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045255363421208</v>
+        <v>1.04367609144934</v>
       </c>
       <c r="J21">
-        <v>1.013033215339267</v>
+        <v>1.038680377164599</v>
       </c>
       <c r="K21">
-        <v>1.045858774888578</v>
+        <v>1.05833976365695</v>
       </c>
       <c r="L21">
-        <v>1.00797298915046</v>
+        <v>1.035220232933573</v>
       </c>
       <c r="M21">
-        <v>1.041741727582107</v>
+        <v>1.062867183326993</v>
       </c>
       <c r="N21">
-        <v>1.007678855958073</v>
+        <v>1.016757447950398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9787506291393732</v>
+        <v>1.031326578643292</v>
       </c>
       <c r="D22">
-        <v>1.028679285366848</v>
+        <v>1.054304025328224</v>
       </c>
       <c r="E22">
-        <v>0.9896348173693765</v>
+        <v>1.030994984071013</v>
       </c>
       <c r="F22">
-        <v>1.023998920461225</v>
+        <v>1.058736966486668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043957855610194</v>
+        <v>1.043478771638198</v>
       </c>
       <c r="J22">
-        <v>1.010452664032013</v>
+        <v>1.038191421364322</v>
       </c>
       <c r="K22">
-        <v>1.043703234018573</v>
+        <v>1.057943763274343</v>
       </c>
       <c r="L22">
-        <v>1.005414445540084</v>
+        <v>1.034723550476704</v>
       </c>
       <c r="M22">
-        <v>1.039109488745728</v>
+        <v>1.062360300732178</v>
       </c>
       <c r="N22">
-        <v>1.006785382961943</v>
+        <v>1.016590596969644</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9809063753189524</v>
+        <v>1.031718595024979</v>
       </c>
       <c r="D23">
-        <v>1.03015385746788</v>
+        <v>1.054581932349383</v>
       </c>
       <c r="E23">
-        <v>0.9913489625254579</v>
+        <v>1.03132822917495</v>
       </c>
       <c r="F23">
-        <v>1.02573408208406</v>
+        <v>1.059073497376835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044649517649214</v>
+        <v>1.043583473242517</v>
       </c>
       <c r="J23">
-        <v>1.01182712544375</v>
+        <v>1.038450648483416</v>
       </c>
       <c r="K23">
-        <v>1.044851181621742</v>
+        <v>1.058153729764593</v>
       </c>
       <c r="L23">
-        <v>1.006776932530508</v>
+        <v>1.03498684983698</v>
       </c>
       <c r="M23">
-        <v>1.040510997025291</v>
+        <v>1.062629009840201</v>
       </c>
       <c r="N23">
-        <v>1.007261293129543</v>
+        <v>1.016679068185451</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9891775227687433</v>
+        <v>1.033262684550216</v>
       </c>
       <c r="D24">
-        <v>1.035830890260793</v>
+        <v>1.055676671578635</v>
       </c>
       <c r="E24">
-        <v>0.9979446691815321</v>
+        <v>1.032641640419097</v>
       </c>
       <c r="F24">
-        <v>1.032415612843443</v>
+        <v>1.06039979802072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047289425599579</v>
+        <v>1.043993484147146</v>
       </c>
       <c r="J24">
-        <v>1.017098635380313</v>
+        <v>1.039470702609127</v>
       </c>
       <c r="K24">
-        <v>1.04925669559676</v>
+        <v>1.058979474343977</v>
       </c>
       <c r="L24">
-        <v>1.012007975128355</v>
+        <v>1.036023463386777</v>
       </c>
       <c r="M24">
-        <v>1.045896422632338</v>
+        <v>1.063686864047858</v>
       </c>
       <c r="N24">
-        <v>1.009085947143453</v>
+        <v>1.017026918387557</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9983662263985815</v>
+        <v>1.035056082589305</v>
       </c>
       <c r="D25">
-        <v>1.042172087054137</v>
+        <v>1.056948347448377</v>
       </c>
       <c r="E25">
-        <v>1.005307546872154</v>
+        <v>1.034168771784538</v>
       </c>
       <c r="F25">
-        <v>1.039882497035913</v>
+        <v>1.061941774591731</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050191495855707</v>
+        <v>1.044464729677444</v>
       </c>
       <c r="J25">
-        <v>1.022948698916488</v>
+        <v>1.040653370263245</v>
       </c>
       <c r="K25">
-        <v>1.054149199809886</v>
+        <v>1.059935863790368</v>
       </c>
       <c r="L25">
-        <v>1.017824024979312</v>
+        <v>1.037226436394743</v>
       </c>
       <c r="M25">
-        <v>1.051891701456622</v>
+        <v>1.064914352182591</v>
       </c>
       <c r="N25">
-        <v>1.01110925640398</v>
+        <v>1.017429632397003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036487756214196</v>
+        <v>1.005398452333367</v>
       </c>
       <c r="D2">
-        <v>1.057963630632712</v>
+        <v>1.047047942253848</v>
       </c>
       <c r="E2">
-        <v>1.035389194267288</v>
+        <v>1.010968131776594</v>
       </c>
       <c r="F2">
-        <v>1.063173931094379</v>
+        <v>1.045627902084269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044836911379219</v>
+        <v>1.052385673132048</v>
       </c>
       <c r="J2">
-        <v>1.041595802792134</v>
+        <v>1.027418886877054</v>
       </c>
       <c r="K2">
-        <v>1.060697162094288</v>
+        <v>1.057888543417733</v>
       </c>
       <c r="L2">
-        <v>1.038185939347275</v>
+        <v>1.022276749009366</v>
       </c>
       <c r="M2">
-        <v>1.065893285383269</v>
+        <v>1.056486162518751</v>
       </c>
       <c r="N2">
-        <v>1.017750063593984</v>
+        <v>1.012653714152332</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037528012924204</v>
+        <v>1.010347360716234</v>
       </c>
       <c r="D3">
-        <v>1.058701374171659</v>
+        <v>1.050490441023763</v>
       </c>
       <c r="E3">
-        <v>1.036276702230254</v>
+        <v>1.014965404408803</v>
       </c>
       <c r="F3">
-        <v>1.064069889248569</v>
+        <v>1.049687124971987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04510500594365</v>
+        <v>1.053913263940911</v>
       </c>
       <c r="J3">
-        <v>1.042279587321826</v>
+        <v>1.030559866453398</v>
       </c>
       <c r="K3">
-        <v>1.061249038772682</v>
+        <v>1.060515610963293</v>
       </c>
       <c r="L3">
-        <v>1.038882624337137</v>
+        <v>1.025410315098312</v>
       </c>
       <c r="M3">
-        <v>1.066603999489315</v>
+        <v>1.059721399121126</v>
       </c>
       <c r="N3">
-        <v>1.017982272930095</v>
+        <v>1.013737844097597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038201469070043</v>
+        <v>1.013481436265308</v>
       </c>
       <c r="D4">
-        <v>1.059178994806896</v>
+        <v>1.052675040367119</v>
       </c>
       <c r="E4">
-        <v>1.036851610875268</v>
+        <v>1.017502776023682</v>
       </c>
       <c r="F4">
-        <v>1.064650230802678</v>
+        <v>1.052264542776874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045277487504928</v>
+        <v>1.054872676587081</v>
       </c>
       <c r="J4">
-        <v>1.042721805842332</v>
+        <v>1.032546461238757</v>
       </c>
       <c r="K4">
-        <v>1.061605721642464</v>
+        <v>1.06217672119665</v>
       </c>
       <c r="L4">
-        <v>1.039333423842552</v>
+        <v>1.02739444957732</v>
       </c>
       <c r="M4">
-        <v>1.067063837685844</v>
+        <v>1.061770591073532</v>
       </c>
       <c r="N4">
-        <v>1.018132317297507</v>
+        <v>1.014422978999908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038484671321531</v>
+        <v>1.01478330037683</v>
       </c>
       <c r="D5">
-        <v>1.059379845415652</v>
+        <v>1.05358349411466</v>
       </c>
       <c r="E5">
-        <v>1.037093452881513</v>
+        <v>1.018558152881866</v>
       </c>
       <c r="F5">
-        <v>1.064894348042456</v>
+        <v>1.053336717258881</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045349760465409</v>
+        <v>1.055269242570837</v>
       </c>
       <c r="J5">
-        <v>1.042907657536701</v>
+        <v>1.033371023188478</v>
       </c>
       <c r="K5">
-        <v>1.061755570095419</v>
+        <v>1.062866040815897</v>
       </c>
       <c r="L5">
-        <v>1.0395229388102</v>
+        <v>1.028218522810741</v>
       </c>
       <c r="M5">
-        <v>1.067257142777589</v>
+        <v>1.062621818653656</v>
       </c>
       <c r="N5">
-        <v>1.018195345249794</v>
+        <v>1.014707213473648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038532226985992</v>
+        <v>1.015000985931657</v>
       </c>
       <c r="D6">
-        <v>1.059413572533787</v>
+        <v>1.053735453073484</v>
       </c>
       <c r="E6">
-        <v>1.037134068015367</v>
+        <v>1.018734702693371</v>
       </c>
       <c r="F6">
-        <v>1.064935344672626</v>
+        <v>1.053516084467697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045361881427711</v>
+        <v>1.055335435780368</v>
       </c>
       <c r="J6">
-        <v>1.042938859498008</v>
+        <v>1.033508859402491</v>
       </c>
       <c r="K6">
-        <v>1.061780724359791</v>
+        <v>1.062981259862178</v>
       </c>
       <c r="L6">
-        <v>1.039554759122635</v>
+        <v>1.02835630857588</v>
       </c>
       <c r="M6">
-        <v>1.067289598886079</v>
+        <v>1.062764151690997</v>
       </c>
       <c r="N6">
-        <v>1.018205924939082</v>
+        <v>1.014754718525684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038205252913251</v>
+        <v>1.013498892728405</v>
       </c>
       <c r="D7">
-        <v>1.059181678352719</v>
+        <v>1.052687217854865</v>
       </c>
       <c r="E7">
-        <v>1.036854841789981</v>
+        <v>1.01751692200552</v>
       </c>
       <c r="F7">
-        <v>1.064653492154102</v>
+        <v>1.052278913393471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045278454156604</v>
+        <v>1.054878001893285</v>
       </c>
       <c r="J7">
-        <v>1.042724289426276</v>
+        <v>1.032557520261607</v>
       </c>
       <c r="K7">
-        <v>1.061607724322909</v>
+        <v>1.062185966975394</v>
       </c>
       <c r="L7">
-        <v>1.039335956156072</v>
+        <v>1.027405499943747</v>
       </c>
       <c r="M7">
-        <v>1.067066420681948</v>
+        <v>1.061782005073427</v>
       </c>
       <c r="N7">
-        <v>1.018133159679657</v>
+        <v>1.014426791713587</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036839245200082</v>
+        <v>1.007085467809833</v>
       </c>
       <c r="D8">
-        <v>1.058212901743566</v>
+        <v>1.048220440202946</v>
       </c>
       <c r="E8">
-        <v>1.035689000467232</v>
+        <v>1.012329466445943</v>
       </c>
       <c r="F8">
-        <v>1.06347660006865</v>
+        <v>1.047010163631965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044927720654147</v>
+        <v>1.05290805492266</v>
       </c>
       <c r="J8">
-        <v>1.041826939483495</v>
+        <v>1.028490113343509</v>
       </c>
       <c r="K8">
-        <v>1.060883757462425</v>
+        <v>1.058784570962948</v>
       </c>
       <c r="L8">
-        <v>1.038421387409397</v>
+        <v>1.023344977614148</v>
       </c>
       <c r="M8">
-        <v>1.066133482512753</v>
+        <v>1.057588889125133</v>
       </c>
       <c r="N8">
-        <v>1.017828583263229</v>
+        <v>1.013023566371692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034434782687954</v>
+        <v>0.9952319331833805</v>
       </c>
       <c r="D9">
-        <v>1.056507772929563</v>
+        <v>1.040005171347774</v>
       </c>
       <c r="E9">
-        <v>1.03363951219015</v>
+        <v>1.00279181332129</v>
       </c>
       <c r="F9">
-        <v>1.061407389098932</v>
+        <v>1.0373303507329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044302092996939</v>
+        <v>1.049205681907515</v>
       </c>
       <c r="J9">
-        <v>1.040243911253768</v>
+        <v>1.020954195044653</v>
       </c>
       <c r="K9">
-        <v>1.059604871641568</v>
+        <v>1.052480902941582</v>
       </c>
       <c r="L9">
-        <v>1.036809809458926</v>
+        <v>1.015839757115582</v>
       </c>
       <c r="M9">
-        <v>1.064489252975374</v>
+        <v>1.049845471616479</v>
       </c>
       <c r="N9">
-        <v>1.017290280124944</v>
+        <v>1.010419667637169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032833578403082</v>
+        <v>0.9869133845596705</v>
       </c>
       <c r="D10">
-        <v>1.055372424791588</v>
+        <v>1.034273862287305</v>
       </c>
       <c r="E10">
-        <v>1.032276509348269</v>
+        <v>0.9961361764625697</v>
       </c>
       <c r="F10">
-        <v>1.06003109402473</v>
+        <v>1.030582842574163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043879929523052</v>
+        <v>1.0465691281786</v>
       </c>
       <c r="J10">
-        <v>1.039187389762967</v>
+        <v>1.015656016891574</v>
       </c>
       <c r="K10">
-        <v>1.058750206481247</v>
+        <v>1.048050689070056</v>
       </c>
       <c r="L10">
-        <v>1.03573546448051</v>
+        <v>1.010575545640179</v>
       </c>
       <c r="M10">
-        <v>1.063392973742324</v>
+        <v>1.044421029483608</v>
       </c>
       <c r="N10">
-        <v>1.016930351427096</v>
+        <v>1.008586718866354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032140660725594</v>
+        <v>0.9832016600297776</v>
       </c>
       <c r="D11">
-        <v>1.054881154880085</v>
+        <v>1.03172620843639</v>
       </c>
       <c r="E11">
-        <v>1.03168711144629</v>
+        <v>0.9931762948901757</v>
       </c>
       <c r="F11">
-        <v>1.059435911564501</v>
+        <v>1.027584424515083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043695928616672</v>
+        <v>1.045384397581055</v>
       </c>
       <c r="J11">
-        <v>1.038729632664543</v>
+        <v>1.013290361050297</v>
       </c>
       <c r="K11">
-        <v>1.058379645757979</v>
+        <v>1.046073630460506</v>
       </c>
       <c r="L11">
-        <v>1.03527027758277</v>
+        <v>1.008228053907154</v>
       </c>
       <c r="M11">
-        <v>1.062918254589901</v>
+        <v>1.042004236254684</v>
       </c>
       <c r="N11">
-        <v>1.016774250181132</v>
+        <v>1.007767876519624</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031883342515138</v>
+        <v>0.9818054526257478</v>
       </c>
       <c r="D12">
-        <v>1.054698728140759</v>
+        <v>1.030769472655605</v>
       </c>
       <c r="E12">
-        <v>1.031468302403063</v>
+        <v>0.9920644653713476</v>
       </c>
       <c r="F12">
-        <v>1.059214949967215</v>
+        <v>1.026458521463854</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043627402368699</v>
+        <v>1.04493757083693</v>
       </c>
       <c r="J12">
-        <v>1.038559560178605</v>
+        <v>1.01240031040026</v>
       </c>
       <c r="K12">
-        <v>1.058241930960166</v>
+        <v>1.045330002514891</v>
       </c>
       <c r="L12">
-        <v>1.035097488682868</v>
+        <v>1.007345293402228</v>
       </c>
       <c r="M12">
-        <v>1.062741920208484</v>
+        <v>1.041095786701554</v>
       </c>
       <c r="N12">
-        <v>1.01671622994693</v>
+        <v>1.007459742640178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>1.031938535326722</v>
+        <v>0.982105753384942</v>
       </c>
       <c r="D13">
-        <v>1.054737856887979</v>
+        <v>1.030975176081239</v>
       </c>
       <c r="E13">
-        <v>1.031515232263186</v>
+        <v>0.992303529200347</v>
       </c>
       <c r="F13">
-        <v>1.059262341727516</v>
+        <v>1.026700592296769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043642109626319</v>
+        <v>1.045033727750424</v>
       </c>
       <c r="J13">
-        <v>1.038596043158449</v>
+        <v>1.01259175257048</v>
       </c>
       <c r="K13">
-        <v>1.058271474498678</v>
+        <v>1.045489939605669</v>
       </c>
       <c r="L13">
-        <v>1.035134552379832</v>
+        <v>1.007535146823779</v>
       </c>
       <c r="M13">
-        <v>1.062779744632782</v>
+        <v>1.041291147425846</v>
       </c>
       <c r="N13">
-        <v>1.016728677167307</v>
+        <v>1.007526021838663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032119389451697</v>
+        <v>0.9830866124277793</v>
       </c>
       <c r="D14">
-        <v>1.054866074345285</v>
+        <v>1.031647340100877</v>
       </c>
       <c r="E14">
-        <v>1.031669022179097</v>
+        <v>0.9930846477804682</v>
       </c>
       <c r="F14">
-        <v>1.059417644443799</v>
+        <v>1.027491608842253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043690267887865</v>
+        <v>1.045347602513078</v>
       </c>
       <c r="J14">
-        <v>1.038715575256293</v>
+        <v>1.013217024148572</v>
       </c>
       <c r="K14">
-        <v>1.058368263674743</v>
+        <v>1.04601235347398</v>
       </c>
       <c r="L14">
-        <v>1.035255994750152</v>
+        <v>1.00815530838439</v>
       </c>
       <c r="M14">
-        <v>1.06290367878173</v>
+        <v>1.041929365941973</v>
       </c>
       <c r="N14">
-        <v>1.016769454969605</v>
+        <v>1.007742488458705</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032230827898639</v>
+        <v>0.9836886002345738</v>
       </c>
       <c r="D15">
-        <v>1.054945080382097</v>
+        <v>1.032060085300327</v>
       </c>
       <c r="E15">
-        <v>1.03176379308834</v>
+        <v>0.993564256477917</v>
       </c>
       <c r="F15">
-        <v>1.059513346933964</v>
+        <v>1.027977349596112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043719915925814</v>
+        <v>1.045540085578972</v>
       </c>
       <c r="J15">
-        <v>1.038789217490204</v>
+        <v>1.013600753211623</v>
       </c>
       <c r="K15">
-        <v>1.058427889158616</v>
+        <v>1.046332989289739</v>
       </c>
       <c r="L15">
-        <v>1.035330819712273</v>
+        <v>1.008535961725966</v>
       </c>
       <c r="M15">
-        <v>1.062980038390271</v>
+        <v>1.042321153037717</v>
       </c>
       <c r="N15">
-        <v>1.016794574586529</v>
+        <v>1.007875327177324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032879573798301</v>
+        <v>0.9871573221125756</v>
       </c>
       <c r="D16">
-        <v>1.055405036093475</v>
+        <v>1.034441508941228</v>
       </c>
       <c r="E16">
-        <v>1.032315642477289</v>
+        <v>0.9963309143152025</v>
       </c>
       <c r="F16">
-        <v>1.060070610483416</v>
+        <v>1.030780168632612</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043892115777842</v>
+        <v>1.046646822654672</v>
       </c>
       <c r="J16">
-        <v>1.039217763805991</v>
+        <v>1.015811461100465</v>
       </c>
       <c r="K16">
-        <v>1.058774789227039</v>
+        <v>1.048180625850453</v>
       </c>
       <c r="L16">
-        <v>1.035766337688222</v>
+        <v>1.0107298591709</v>
       </c>
       <c r="M16">
-        <v>1.06342447888151</v>
+        <v>1.044579947367409</v>
       </c>
       <c r="N16">
-        <v>1.016940706111355</v>
+        <v>1.008640515939764</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03328662590323</v>
+        <v>0.9893030837133443</v>
       </c>
       <c r="D17">
-        <v>1.055693646923845</v>
+        <v>1.035917302252388</v>
       </c>
       <c r="E17">
-        <v>1.032662015367918</v>
+        <v>0.998045027865382</v>
       </c>
       <c r="F17">
-        <v>1.06042037209512</v>
+        <v>1.032517334381729</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04399981082318</v>
+        <v>1.047329314959811</v>
       </c>
       <c r="J17">
-        <v>1.039486505887805</v>
+        <v>1.01717862696827</v>
       </c>
       <c r="K17">
-        <v>1.058992261194146</v>
+        <v>1.049323574369375</v>
       </c>
       <c r="L17">
-        <v>1.036039530049572</v>
+        <v>1.012087421872979</v>
       </c>
       <c r="M17">
-        <v>1.063703259138363</v>
+        <v>1.045978266728562</v>
       </c>
       <c r="N17">
-        <v>1.017032303861991</v>
+        <v>1.009113625953328</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033524092486047</v>
+        <v>0.9905441550518507</v>
       </c>
       <c r="D18">
-        <v>1.055862021783778</v>
+        <v>1.036771780006548</v>
       </c>
       <c r="E18">
-        <v>1.032864125119501</v>
+        <v>0.9990373695895248</v>
       </c>
       <c r="F18">
-        <v>1.060624455609519</v>
+        <v>1.033523238200692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0440625115847</v>
+        <v>1.04772326488572</v>
       </c>
       <c r="J18">
-        <v>1.039643231909705</v>
+        <v>1.017969214701762</v>
       </c>
       <c r="K18">
-        <v>1.059119062055409</v>
+        <v>1.049984599639982</v>
       </c>
       <c r="L18">
-        <v>1.036198879615139</v>
+        <v>1.01287274000192</v>
       </c>
       <c r="M18">
-        <v>1.063865864664671</v>
+        <v>1.0467873622065</v>
       </c>
       <c r="N18">
-        <v>1.017085707167374</v>
+        <v>1.009387169320688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033605069234437</v>
+        <v>0.9909655744712939</v>
       </c>
       <c r="D19">
-        <v>1.055919438828412</v>
+        <v>1.037062076603755</v>
       </c>
       <c r="E19">
-        <v>1.032933052243328</v>
+        <v>0.9993744851769355</v>
       </c>
       <c r="F19">
-        <v>1.060694055243733</v>
+        <v>1.033864996275666</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044083871248048</v>
+        <v>1.047856898559191</v>
       </c>
       <c r="J19">
-        <v>1.039696666894304</v>
+        <v>1.018237639026134</v>
       </c>
       <c r="K19">
-        <v>1.059162289899126</v>
+        <v>1.050209048677243</v>
       </c>
       <c r="L19">
-        <v>1.036253213867939</v>
+        <v>1.013139423107486</v>
       </c>
       <c r="M19">
-        <v>1.063921308532612</v>
+        <v>1.047062152406348</v>
       </c>
       <c r="N19">
-        <v>1.017103912217178</v>
+        <v>1.009480036928808</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033242948929473</v>
+        <v>0.9890739585501848</v>
       </c>
       <c r="D20">
-        <v>1.055662678286394</v>
+        <v>1.035759621681317</v>
       </c>
       <c r="E20">
-        <v>1.032624844937185</v>
+        <v>0.9978618973402295</v>
       </c>
       <c r="F20">
-        <v>1.060382838375333</v>
+        <v>1.032331718192202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043988268153192</v>
+        <v>1.047256519871676</v>
       </c>
       <c r="J20">
-        <v>1.03945767516329</v>
+        <v>1.017032656431555</v>
       </c>
       <c r="K20">
-        <v>1.05896893335091</v>
+        <v>1.049201532937823</v>
       </c>
       <c r="L20">
-        <v>1.036010218979041</v>
+        <v>1.011942447183538</v>
       </c>
       <c r="M20">
-        <v>1.063673348884502</v>
+        <v>1.045828918472221</v>
       </c>
       <c r="N20">
-        <v>1.017022478782573</v>
+        <v>1.009063116775698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032066130700522</v>
+        <v>0.9827982657853789</v>
       </c>
       <c r="D21">
-        <v>1.054828316033245</v>
+        <v>1.03144969660867</v>
       </c>
       <c r="E21">
-        <v>1.031623731575393</v>
+        <v>0.9928549758426319</v>
       </c>
       <c r="F21">
-        <v>1.059371908462577</v>
+        <v>1.027259015096525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04367609144934</v>
+        <v>1.045255363421209</v>
       </c>
       <c r="J21">
-        <v>1.038680377164599</v>
+        <v>1.013033215339268</v>
       </c>
       <c r="K21">
-        <v>1.05833976365695</v>
+        <v>1.045858774888578</v>
       </c>
       <c r="L21">
-        <v>1.035220232933573</v>
+        <v>1.00797298915046</v>
       </c>
       <c r="M21">
-        <v>1.062867183326993</v>
+        <v>1.041741727582107</v>
       </c>
       <c r="N21">
-        <v>1.016757447950398</v>
+        <v>1.007678855958073</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031326578643292</v>
+        <v>0.9787506291393734</v>
       </c>
       <c r="D22">
-        <v>1.054304025328224</v>
+        <v>1.028679285366848</v>
       </c>
       <c r="E22">
-        <v>1.030994984071013</v>
+        <v>0.9896348173693769</v>
       </c>
       <c r="F22">
-        <v>1.058736966486668</v>
+        <v>1.023998920461225</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043478771638198</v>
+        <v>1.043957855610194</v>
       </c>
       <c r="J22">
-        <v>1.038191421364322</v>
+        <v>1.010452664032013</v>
       </c>
       <c r="K22">
-        <v>1.057943763274343</v>
+        <v>1.043703234018573</v>
       </c>
       <c r="L22">
-        <v>1.034723550476704</v>
+        <v>1.005414445540084</v>
       </c>
       <c r="M22">
-        <v>1.062360300732178</v>
+        <v>1.039109488745729</v>
       </c>
       <c r="N22">
-        <v>1.016590596969644</v>
+        <v>1.006785382961944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031718595024979</v>
+        <v>0.9809063753189522</v>
       </c>
       <c r="D23">
-        <v>1.054581932349383</v>
+        <v>1.03015385746788</v>
       </c>
       <c r="E23">
-        <v>1.03132822917495</v>
+        <v>0.9913489625254578</v>
       </c>
       <c r="F23">
-        <v>1.059073497376835</v>
+        <v>1.02573408208406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043583473242517</v>
+        <v>1.044649517649214</v>
       </c>
       <c r="J23">
-        <v>1.038450648483416</v>
+        <v>1.01182712544375</v>
       </c>
       <c r="K23">
-        <v>1.058153729764593</v>
+        <v>1.044851181621742</v>
       </c>
       <c r="L23">
-        <v>1.03498684983698</v>
+        <v>1.006776932530508</v>
       </c>
       <c r="M23">
-        <v>1.062629009840201</v>
+        <v>1.040510997025291</v>
       </c>
       <c r="N23">
-        <v>1.016679068185451</v>
+        <v>1.007261293129543</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033262684550216</v>
+        <v>0.9891775227687427</v>
       </c>
       <c r="D24">
-        <v>1.055676671578635</v>
+        <v>1.035830890260793</v>
       </c>
       <c r="E24">
-        <v>1.032641640419097</v>
+        <v>0.9979446691815315</v>
       </c>
       <c r="F24">
-        <v>1.06039979802072</v>
+        <v>1.032415612843443</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043993484147146</v>
+        <v>1.047289425599579</v>
       </c>
       <c r="J24">
-        <v>1.039470702609127</v>
+        <v>1.017098635380312</v>
       </c>
       <c r="K24">
-        <v>1.058979474343977</v>
+        <v>1.04925669559676</v>
       </c>
       <c r="L24">
-        <v>1.036023463386777</v>
+        <v>1.012007975128354</v>
       </c>
       <c r="M24">
-        <v>1.063686864047858</v>
+        <v>1.045896422632338</v>
       </c>
       <c r="N24">
-        <v>1.017026918387557</v>
+        <v>1.009085947143453</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035056082589305</v>
+        <v>0.9983662263985812</v>
       </c>
       <c r="D25">
-        <v>1.056948347448377</v>
+        <v>1.042172087054136</v>
       </c>
       <c r="E25">
-        <v>1.034168771784538</v>
+        <v>1.005307546872153</v>
       </c>
       <c r="F25">
-        <v>1.061941774591731</v>
+        <v>1.039882497035913</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044464729677444</v>
+        <v>1.050191495855707</v>
       </c>
       <c r="J25">
-        <v>1.040653370263245</v>
+        <v>1.022948698916488</v>
       </c>
       <c r="K25">
-        <v>1.059935863790368</v>
+        <v>1.054149199809886</v>
       </c>
       <c r="L25">
-        <v>1.037226436394743</v>
+        <v>1.017824024979311</v>
       </c>
       <c r="M25">
-        <v>1.064914352182591</v>
+        <v>1.051891701456622</v>
       </c>
       <c r="N25">
-        <v>1.017429632397003</v>
+        <v>1.01110925640398</v>
       </c>
     </row>
   </sheetData>
